--- a/inetBankingV1/src/test/java/com/inetBanking/testData/LoginData.xlsx
+++ b/inetBankingV1/src/test/java/com/inetBanking/testData/LoginData.xlsx
@@ -3,13 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F90F06-E85C-4992-9D09-A53E281203E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD7464D-127E-4C1C-BDAF-069BF0E61223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="2010" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -29,41 +28,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>mngr112909</t>
+    <t>mngr421362</t>
   </si>
   <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
-    <t>mngr137319</t>
-  </si>
-  <si>
-    <t>bAdYvyb</t>
-  </si>
-  <si>
-    <t>mngr164225</t>
-  </si>
-  <si>
-    <t>jahetAp</t>
-  </si>
-  <si>
-    <t>mngr411979</t>
-  </si>
-  <si>
-    <t>hunyvUj</t>
-  </si>
-  <si>
-    <t>mngr412636</t>
-  </si>
-  <si>
-    <t>unYpygy</t>
+    <t>yvaquge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,22 +55,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri "/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -139,13 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,96 +426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E5D35-8ADE-49A6-876B-7571F5E6119D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="23.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.5">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.5">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.5">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.5">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23.5">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49E5D35-8ADE-49A6-876B-7571F5E6119D}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.5">
+    <row r="1" spans="1:2" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,55 +447,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="23.5">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.5">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.5">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="23.5">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="23.5">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="23.5">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>